--- a/Categories.xlsx
+++ b/Categories.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DA_SE347\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1863A7BF-D2F8-45B2-850B-AFE955F1A473}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3CA582F-A96E-4188-907E-FE72A2B924E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{AC4B7EBD-1C64-44F2-983D-C57CA98A33B1}"/>
   </bookViews>
@@ -16,6 +16,7 @@
     <sheet name="Categories" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -173,9 +174,6 @@
     <t>Bóp viết - Hộp bút</t>
   </si>
   <si>
-    <t>Bài - File hồ sơ</t>
-  </si>
-  <si>
     <t>Đồ bấm kim</t>
   </si>
   <si>
@@ -213,6 +211,9 @@
   </si>
   <si>
     <t>Tuổi; Năm xuất bản; Thương hiệu; Xuất sứ thương hiệu; Nơi gia công &amp; sản xuất; Màu sắc; Chất liệu ; Thông số kỹ thuật; Thông tin cảnh báo; Hướng dẫn sử dụng; Trọng lượng (gr)</t>
+  </si>
+  <si>
+    <t>Bìa - File hồ sơ</t>
   </si>
 </sst>
 </file>
@@ -586,8 +587,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5DDFDFFD-11BC-4311-B8F4-14BBD6741A49}">
   <dimension ref="A1:E55"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="A46" sqref="A46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -605,7 +606,7 @@
         <v>0</v>
       </c>
       <c r="E1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
@@ -613,7 +614,7 @@
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
@@ -621,7 +622,7 @@
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
@@ -629,7 +630,7 @@
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
@@ -962,7 +963,7 @@
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>45</v>
+        <v>58</v>
       </c>
       <c r="D46" t="s">
         <v>36</v>
@@ -970,7 +971,7 @@
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D47" t="s">
         <v>36</v>
@@ -978,7 +979,7 @@
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D48" t="s">
         <v>36</v>
@@ -986,7 +987,7 @@
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D49" t="s">
         <v>36</v>
@@ -994,18 +995,18 @@
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D50" t="s">
         <v>3</v>
       </c>
       <c r="E50" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D51" t="s">
         <v>3</v>
@@ -1013,34 +1014,34 @@
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D52" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D53" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D54" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D55" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
   </sheetData>

--- a/Categories.xlsx
+++ b/Categories.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DA_SE347\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3CA582F-A96E-4188-907E-FE72A2B924E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEBB3FC9-C2C8-415D-8034-B1FD787335F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{AC4B7EBD-1C64-44F2-983D-C57CA98A33B1}"/>
   </bookViews>
@@ -16,7 +16,6 @@
     <sheet name="Categories" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -37,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="64">
   <si>
     <t>Sách trong nước</t>
   </si>
@@ -214,6 +213,21 @@
   </si>
   <si>
     <t>Bìa - File hồ sơ</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>slug</t>
+  </si>
+  <si>
+    <t>description</t>
+  </si>
+  <si>
+    <t xml:space="preserve">parent </t>
+  </si>
+  <si>
+    <t>attributes</t>
   </si>
 </sst>
 </file>
@@ -585,16 +599,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5DDFDFFD-11BC-4311-B8F4-14BBD6741A49}">
-  <dimension ref="A1:E55"/>
+  <dimension ref="A1:E56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="A46" sqref="A46"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="25.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.375" customWidth="1"/>
+    <col min="3" max="3" width="9.75" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="21.625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="166.875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="15.5" bestFit="1" customWidth="1"/>
@@ -603,15 +617,24 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>59</v>
+      </c>
+      <c r="B1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D1" t="s">
+        <v>62</v>
       </c>
       <c r="E1" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E2" t="s">
         <v>55</v>
@@ -619,31 +642,31 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>4</v>
-      </c>
-      <c r="D5" t="s">
-        <v>0</v>
+        <v>3</v>
+      </c>
+      <c r="E5" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D6" t="s">
         <v>0</v>
@@ -651,7 +674,7 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D7" t="s">
         <v>0</v>
@@ -659,7 +682,7 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D8" t="s">
         <v>0</v>
@@ -667,15 +690,15 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D9" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D10" t="s">
         <v>4</v>
@@ -683,7 +706,7 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D11" t="s">
         <v>4</v>
@@ -691,7 +714,7 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D12" t="s">
         <v>4</v>
@@ -699,15 +722,15 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D13" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D14" t="s">
         <v>5</v>
@@ -715,7 +738,7 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D15" t="s">
         <v>5</v>
@@ -723,7 +746,7 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D16" t="s">
         <v>5</v>
@@ -731,15 +754,15 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D17" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D18" t="s">
         <v>6</v>
@@ -747,7 +770,7 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D19" t="s">
         <v>6</v>
@@ -755,15 +778,15 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D20" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D21" t="s">
         <v>7</v>
@@ -771,7 +794,7 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D22" t="s">
         <v>7</v>
@@ -779,15 +802,15 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D23" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D24" t="s">
         <v>1</v>
@@ -795,7 +818,7 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D25" t="s">
         <v>1</v>
@@ -803,15 +826,15 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D26" t="s">
-        <v>22</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D27" t="s">
         <v>22</v>
@@ -819,7 +842,7 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D28" t="s">
         <v>22</v>
@@ -827,15 +850,15 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D29" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D30" t="s">
         <v>23</v>
@@ -843,7 +866,7 @@
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D31" t="s">
         <v>23</v>
@@ -851,15 +874,15 @@
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D32" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D33" t="s">
         <v>24</v>
@@ -867,7 +890,7 @@
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D34" t="s">
         <v>24</v>
@@ -875,15 +898,15 @@
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D35" t="s">
-        <v>2</v>
+        <v>24</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D36" t="s">
         <v>2</v>
@@ -891,7 +914,7 @@
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D37" t="s">
         <v>2</v>
@@ -899,15 +922,15 @@
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D38" t="s">
-        <v>34</v>
+        <v>2</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D39" t="s">
         <v>34</v>
@@ -915,7 +938,7 @@
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D40" t="s">
         <v>34</v>
@@ -923,7 +946,7 @@
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D41" t="s">
         <v>34</v>
@@ -931,15 +954,15 @@
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D42" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D43" t="s">
         <v>35</v>
@@ -947,7 +970,7 @@
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D44" t="s">
         <v>35</v>
@@ -955,7 +978,7 @@
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D45" t="s">
         <v>35</v>
@@ -963,15 +986,15 @@
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>58</v>
+        <v>44</v>
       </c>
       <c r="D46" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>45</v>
+        <v>58</v>
       </c>
       <c r="D47" t="s">
         <v>36</v>
@@ -979,7 +1002,7 @@
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D48" t="s">
         <v>36</v>
@@ -987,7 +1010,7 @@
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D49" t="s">
         <v>36</v>
@@ -995,34 +1018,34 @@
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D50" t="s">
-        <v>3</v>
-      </c>
-      <c r="E50" t="s">
-        <v>49</v>
+        <v>36</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D51" t="s">
         <v>3</v>
       </c>
+      <c r="E51" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D52" t="s">
-        <v>48</v>
+        <v>3</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D53" t="s">
         <v>48</v>
@@ -1030,17 +1053,25 @@
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D54" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
+        <v>53</v>
+      </c>
+      <c r="D55" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
         <v>54</v>
       </c>
-      <c r="D55" t="s">
+      <c r="D56" t="s">
         <v>50</v>
       </c>
     </row>
